--- a/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ áôäô ðïíîéóû ï âàò, íïé\näïñïãôšé! Çåìàý âàí öïñïšï ðñïâåòóé âñåíÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Welcome back!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! After that expedition, you\nboth seem a little different. My dears, you\nhave a new lean, mean look!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can see that!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С возвращением!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Вы выглядите иначе после\nэкспедиции. Дорогуши мои, вы совсем\nотощали!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это заметно! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò âïèâñàþåîéåí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Âú âúãìÿäéóå éîàœå ðïòìå\nüëòðåäéøéé. Äïñïãôšé íïé, âú òïâòåí\nïóïþàìé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï èàíåóîï!</t>
   </si>
 </sst>
 </file>
@@ -85,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,11 +144,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -136,6 +172,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,17 +511,60 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
         <v>354</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>307</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>310</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>313</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï èàíåóîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If that [CS:N]Grovyle[CR] doesn\'t get\ncaught soon, this old lady won\'t sleep easy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если [CS:N]Гровайла[CR] не поймают, то\nя, старая леди, не смогу спать спокойно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé [CS:N]Ãñïâàêìà[CR] îå ðïêíàýó, óï\nÿ, òóàñàÿ ìåäé, îå òíïãô òðàóû òðïëïêîï!</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,17 +563,32 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>313</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>269</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -91,6 +91,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòìé [CS:N]Ãñïâàêìà[CR] îå ðïêíàýó, óï\nÿ, òóàñàÿ ìåäé, îå òíïãô òðàóû òðïëïêîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, my goodness! You\'re safe!\nOh, thank mercy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was so worried about you![K]\nYou\'re back without a scratch on you...[K]\nThis is w-w-wonderful!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]I shouldn\'t be sobbing.\nI should be strong like you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, божечки мои! Вы в порядке!\nО, хвала небесам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так за вас переживала![K] Вы\nвернулись без единой царапины...[K] Это так\nч-ч-чудесно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Не буду всхлипывать. Я буду\nсильной, прямо как вы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, áïçåœëé íïé! Âú â ðïñÿäëå!\nÏ, öâàìà îåáåòàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë èà âàò ðåñåçéâàìà![K] Âú\nâåñîôìéòû áåè åäéîïê øàñàðéîú...[K] Üóï óàë\nœ-œ-œôäåòîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Îå áôäô âòöìéðúâàóû. Ÿ áôäô\nòéìûîïê, ðñÿíï ëàë âú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t worry, sweeties![K] With you\ntwo in charge, nothing can go wrong!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Have confidence in yourselves,\nmy dears!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не переживайте, дорогуши![K] Если\nвы взялись за дело, то ничто вам не помешает!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Верьте в себя, дорогие мои!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå ðåñåçéâàêóå, äïñïãôšé![K] Åòìé\nâú âèÿìéòû èà äåìï, óï îéœóï âàí îå ðïíåšàåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåñûóå â òåáÿ, äïñïãéå íïé!</t>
   </si>
 </sst>
 </file>
@@ -121,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,11 +207,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -187,6 +243,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,17 +640,89 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>269</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>225</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>228</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
+        <v>231</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>184</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>187</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Âåñûóå â òåáÿ, äïñïãéå íïé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Congratulations on graduating!\nYou two are extraordinary!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do you know what they say\nabout that guild?[K] That they make it terribly\nhard for apprentices to graduate!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поздравляю с выпуском! Вы двое\nневероятны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïèäñàâìÿý ò âúðôòëïí! Âú äâïå\nîåâåñïÿóîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Знаете, что говорят о гильдии?[K]\nТо, что ученикам ужасно тяжело выпуститься\nиз неё!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàåóå, œóï ãïâïñÿó ï ãéìûäéé?[K]\nÓï, œóï ôœåîéëàí ôçàòîï óÿçåìï âúðôòóéóûòÿ\néè îåæ!</t>
   </si>
 </sst>
 </file>
@@ -531,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,17 +730,46 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>187</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>143</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>146</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кангасхан.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -154,6 +154,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Èîàåóå, œóï ãïâïñÿó ï ãéìûäéé?[K]\nÓï, œóï ôœåîéëàí ôçàòîï óÿçåìï âúðôòóéóûòÿ\néè îåæ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You know, I\'m not at all that\nenthralled by Team [CS:X]Charm[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I honestly don\'t understand what\nthe fuss is all about.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I mean, what is so special about\nTeam [CS:X]Charm[CR], I ask you…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Знаете, я не так уж и увлечена\nКомандой [CS:X]Шарм[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Честно, я не понимаю, из-за\nчего весь сыр-бор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу сказать, а что такого\nособенного в Команде [CS:X]Шарм[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàåóå, ÿ îå óàë ôç é ôâìåœåîà\nËïíàîäïê [CS:X]Šàñí[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œåòóîï, ÿ îå ðïîéíàý, éè-èà\nœåãï âåòû òúñ-áïñ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô òëàèàóû, à œóï óàëïãï\nïòïáåîîïãï â Ëïíàîäå [CS:X]Šàñí[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard you have to face a\ntough enemy…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But you two can do it! You\'re\nsure to win! Don\'t lose faith!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well! Aren\'t you impressive!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My dears, I love the both of you\nas if you were my own children!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я узнала, что вам предстоит\nсразиться с сильным противником...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но вы двое справитесь! Вы\nобязательно победите! Не теряйте веры в\nсебя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так держать! Вы большие\nмолодцы!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дорогуши мои, я люблю вас\nтакже, как и собственных детей!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôèîàìà, œóï âàí ðñåäòóïéó\nòñàèéóûòÿ ò òéìûîúí ðñïóéâîéëïí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï âú äâïå òðñàâéóåòû! Âú\nïáÿèàóåìûîï ðïáåäéóå! Îå óåñÿêóå âåñú â\nòåáÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë äåñçàóû! Âú áïìûšéå\níïìïäøú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïñïãôšé íïé, ÿ ìýáìý âàò\nóàëçå, ëàë é òïáòóâåîîúö äåóåê!</t>
   </si>
 </sst>
 </file>
@@ -549,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,17 +822,118 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
         <v>146</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>116</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6">
+        <v>119</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
